--- a/PeppaPig/collocations.xlsx
+++ b/PeppaPig/collocations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -473,11 +473,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jump in</t>
+          <t>Come on</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -488,11 +488,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>play in</t>
+          <t>jump in</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -503,11 +503,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>go on</t>
+          <t>play in</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -518,11 +518,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>be in</t>
+          <t>come in</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -533,11 +533,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>stay in</t>
+          <t>go on</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -548,11 +548,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>do with</t>
+          <t>Look at</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -563,11 +563,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>look after</t>
+          <t>be in</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -593,11 +593,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>come in</t>
+          <t>stay in</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -608,11 +608,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ride on</t>
+          <t>do with</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -623,11 +623,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>put in</t>
+          <t>look after</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -638,11 +638,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>go for</t>
+          <t>ride on</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -653,11 +653,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>grow into</t>
+          <t>see if</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -668,11 +668,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>look for</t>
+          <t>go in</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -683,11 +683,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>look at</t>
+          <t>get on</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -698,11 +698,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>go in</t>
+          <t>put in</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -713,11 +713,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>be that</t>
+          <t>go for</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -728,11 +728,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>wait for</t>
+          <t>smell of</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -743,11 +743,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>be on</t>
+          <t>come on</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -758,11 +758,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>throw the ball</t>
+          <t>have a go</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -773,11 +773,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>make a wishPeppa</t>
+          <t>take a look</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -788,11 +788,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>take a look</t>
+          <t>play a game</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -803,11 +803,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>get the ball</t>
+          <t>have a race</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -818,11 +818,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>be a bit</t>
+          <t>throw the ball</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -833,11 +833,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>fix the school</t>
+          <t>hear the sea</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -848,11 +848,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>round all day</t>
+          <t>get the ball</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -863,7 +863,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>make a teaset</t>
+          <t>try the garden</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -878,11 +878,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>play that computer</t>
+          <t>mend the computer</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -893,11 +893,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>mend the computerDaddy</t>
+          <t>get some exercise</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -908,11 +908,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>get some exercise</t>
+          <t>do some work</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -923,11 +923,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>see the tooth</t>
+          <t>watch some television</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -938,11 +938,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>find the treasure</t>
+          <t>do a bit</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -953,11 +953,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>spend the day</t>
+          <t>catch the ball</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -968,11 +968,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>have a dinosaur</t>
+          <t>be a bit</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -983,11 +983,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>do a puppet</t>
+          <t>be a baby</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -998,11 +998,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>do a bit</t>
+          <t>fix the school</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1013,11 +1013,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>have a race</t>
+          <t>miss the sea</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>look a bit</t>
+          <t>paint a flower</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>put the picture</t>
+          <t>play that computer</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1058,11 +1058,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>muddy puddlesNarrator</t>
+          <t>Good night</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43">
@@ -1073,11 +1073,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>sunny day</t>
+          <t>little bit</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>little bit</t>
+          <t>sunny day</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
@@ -1103,11 +1103,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>muddy puddlesPeppa</t>
+          <t>long time</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
@@ -1118,11 +1118,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>long time</t>
+          <t>Happy birthday</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
@@ -1133,11 +1133,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>little brother</t>
+          <t>Good idea</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -1148,11 +1148,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>good idea</t>
+          <t>secret club</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
@@ -1163,11 +1163,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>new school</t>
+          <t>little piggy</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
@@ -1178,11 +1178,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>little piggyPeppa</t>
+          <t>good idea</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
@@ -1193,11 +1193,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>rainy day</t>
+          <t>tree house</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -1208,11 +1208,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>home time</t>
+          <t>bed time</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -1223,11 +1223,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>big muddy</t>
+          <t>little brother</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
@@ -1253,11 +1253,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>bed time</t>
+          <t>hard work</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -1268,11 +1268,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>fish pond</t>
+          <t>muddy puddle</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57">
@@ -1283,11 +1283,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>favourite game</t>
+          <t>big tummy</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -1298,11 +1298,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Happy birthday</t>
+          <t>little fish</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -1313,11 +1313,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>hard work</t>
+          <t>favourite game</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -1328,11 +1328,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>big girl</t>
+          <t>bubble mixture</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -1343,11 +1343,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>steady goNarrator</t>
+          <t>new school</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -1358,11 +1358,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>not want</t>
+          <t>n't worry</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63">
@@ -1373,11 +1373,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>not like</t>
+          <t>n't know</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64">
@@ -1388,11 +1388,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>not find</t>
+          <t>n't want</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65">
@@ -1403,11 +1403,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>not have</t>
+          <t>n't be</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66">
@@ -1418,11 +1418,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>not sound</t>
+          <t>n't have</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
@@ -1433,11 +1433,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>not see</t>
+          <t>n't like</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
@@ -1448,11 +1448,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>just need</t>
+          <t>n't see</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -1463,11 +1463,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>not get</t>
+          <t>n't think</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -1478,11 +1478,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>not be</t>
+          <t>Then let</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
@@ -1493,11 +1493,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>not play</t>
+          <t>n't need</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
@@ -1508,11 +1508,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>well have</t>
+          <t>n't play</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73">
@@ -1523,11 +1523,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>just have</t>
+          <t>not want</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
@@ -1538,11 +1538,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>well put</t>
+          <t>n't forget</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -1553,11 +1553,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>not know</t>
+          <t>n't find</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -1568,11 +1568,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>easily find</t>
+          <t>n't get</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
@@ -1583,11 +1583,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>just switch</t>
+          <t>just have</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
@@ -1598,11 +1598,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>not think</t>
+          <t>n't tell</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
@@ -1613,11 +1613,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>not wait</t>
+          <t>n't go</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80">
@@ -1628,11 +1628,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>not funnyPeppa</t>
+          <t>n't catch</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
@@ -1643,11 +1643,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Well have</t>
+          <t>not find</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
@@ -1673,11 +1673,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>cup of teaNarrator</t>
+          <t>dinosaur for everything</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
@@ -1688,11 +1688,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>sense of smellFreddy</t>
+          <t>lot of noise</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
@@ -1703,11 +1703,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>soup for lunchPeppa</t>
+          <t>sense of smell</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -1718,11 +1718,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>jump in themMummy</t>
+          <t>lot of fun</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -1733,11 +1733,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>lot of stuff</t>
+          <t>stroke of luck</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
@@ -1748,11 +1748,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>sort of thing</t>
+          <t>time for bed</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
@@ -1763,11 +1763,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>time for bed</t>
+          <t>cup of coffee</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>made of plastic</t>
+          <t>bed at night</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -1793,11 +1793,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>lot of funNarrator</t>
+          <t>soup for lunch</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -1808,11 +1808,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>plaster on itSuzy</t>
+          <t>lot of stuff</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -1823,11 +1823,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>tree like thisPeppa</t>
+          <t>teapot with water</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -1838,11 +1838,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>tree like thisGrandpa</t>
+          <t>sort of thing</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -1853,11 +1853,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>grow on treesGeorge</t>
+          <t>plenty of time</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -1868,11 +1868,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>dinosaur of courseGeorge</t>
+          <t>lot of money</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -1883,11 +1883,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>slice of strawberry</t>
+          <t>piece of paper</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -1898,11 +1898,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>food from flowersPeppa</t>
+          <t>home from work</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -1913,11 +1913,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>lot of work</t>
+          <t>sense of balance</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -1928,11 +1928,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>breakfast in bedDaddy</t>
+          <t>world of concrete</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -1943,11 +1943,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>coin in return</t>
+          <t>sky for company</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104">
@@ -1988,11 +1988,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>be back</t>
+          <t>do now</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105">
@@ -2003,11 +2003,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>get back</t>
+          <t>be back</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106">
@@ -2018,11 +2018,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>run away</t>
+          <t>come back</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
@@ -2033,11 +2033,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>look very</t>
+          <t>go back</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108">
@@ -2048,11 +2048,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>go back</t>
+          <t>be silly</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
@@ -2063,11 +2063,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>go straight</t>
+          <t>get back</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110">
@@ -2078,11 +2078,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>come back</t>
+          <t>live here</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111">
@@ -2093,11 +2093,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>be silly</t>
+          <t>run away</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112">
@@ -2108,11 +2108,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>do now</t>
+          <t>go first</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113">
@@ -2123,11 +2123,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>live here</t>
+          <t>Ca n't</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114">
@@ -2138,11 +2138,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>stay awake</t>
+          <t>go straight</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115">
@@ -2153,11 +2153,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>feel very</t>
+          <t>come too</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116">
@@ -2168,11 +2168,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>be quite</t>
+          <t>have here</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117">
@@ -2183,11 +2183,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>go inside</t>
+          <t>stay here</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118">
@@ -2198,11 +2198,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>have too</t>
+          <t>look very</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119">
@@ -2213,11 +2213,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>jump up</t>
+          <t>go inside</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120">
@@ -2228,11 +2228,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>see very</t>
+          <t>be late</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121">
@@ -2243,11 +2243,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>take as</t>
+          <t>think so</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123">
@@ -2273,11 +2273,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>in the gardenPeppa</t>
+          <t>on the list</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124">
@@ -2288,11 +2288,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>around the world</t>
+          <t>on the moon</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125">
@@ -2303,11 +2303,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>of an expert</t>
+          <t>around the world</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126">
@@ -2318,11 +2318,11 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>upon a time</t>
+          <t>on the roundabout</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127">
@@ -2333,11 +2333,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>in the kitchen</t>
+          <t>in the bath</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128">
@@ -2348,11 +2348,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>of the world</t>
+          <t>in the car</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129">
@@ -2363,11 +2363,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>on the moon</t>
+          <t>in the kitchen</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130">
@@ -2378,11 +2378,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>on a boat</t>
+          <t>in the sky</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131">
@@ -2393,11 +2393,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>in the gardenNarrator</t>
+          <t>on the ground</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132">
@@ -2408,11 +2408,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>On the count</t>
+          <t>upon a time</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133">
@@ -2423,11 +2423,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>like a cup</t>
+          <t>at the playground</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134">
@@ -2438,11 +2438,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>with a bing</t>
+          <t>on the slide</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135">
@@ -2453,11 +2453,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>on the computerPeppa</t>
+          <t>in the world</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136">
@@ -2468,11 +2468,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>on the ground</t>
+          <t>on the bus</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137">
@@ -2483,11 +2483,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>in the gardenMummy</t>
+          <t>of the world</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138">
@@ -2498,11 +2498,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>for a drive</t>
+          <t>of an expert</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139">
@@ -2513,11 +2513,11 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>on the waterPeppa</t>
+          <t>in the box</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140">
@@ -2528,11 +2528,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>for a day</t>
+          <t>in no time</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141">
@@ -2543,11 +2543,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>in the school</t>
+          <t>into a frog</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="143">
@@ -2573,11 +2573,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>choo choo</t>
+          <t>ha ha</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144">
@@ -2588,11 +2588,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ha ha</t>
+          <t>school roof</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145">
@@ -2603,11 +2603,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>tooth fairy</t>
+          <t>camper van</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146">
@@ -2618,11 +2618,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ice cream</t>
+          <t>chocolate cake</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147">
@@ -2633,11 +2633,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>camper van</t>
+          <t>ice cream</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148">
@@ -2648,11 +2648,11 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>chocolate cake</t>
+          <t>tooth fairy</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149">
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150">
@@ -2678,11 +2678,11 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>puddlesNarrator Everyone</t>
+          <t>toy train</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151">
@@ -2693,11 +2693,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ho hoPeppa</t>
+          <t>choo choo</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152">
@@ -2708,11 +2708,11 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>round round</t>
+          <t>sand castle</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153">
@@ -2723,11 +2723,11 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>chocolate egg</t>
+          <t>baby piggy</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154">
@@ -2738,11 +2738,11 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>toot toot</t>
+          <t>desert island</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155">
@@ -2753,11 +2753,11 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>apple tree</t>
+          <t>muddy puddle</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157">
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158">
@@ -2798,11 +2798,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>bing boo</t>
+          <t>duck pond</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159">
@@ -2813,11 +2813,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>duck pond</t>
+          <t>way home</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160">
@@ -2828,11 +2828,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>toy train</t>
+          <t>fire engine</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161">
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163">
@@ -2873,11 +2873,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>be something</t>
+          <t>see anything</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164">
@@ -2888,11 +2888,11 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>make sand</t>
+          <t>get home</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165">
@@ -2903,11 +2903,11 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>be anything</t>
+          <t>make sand</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166">
@@ -2918,11 +2918,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>do something</t>
+          <t>be something</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167">
@@ -2933,11 +2933,11 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>see anything</t>
+          <t>do something</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>make itNarrator</t>
+          <t>do today</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -2963,11 +2963,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>catch itPeppa</t>
+          <t>be anything</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170">
@@ -2978,11 +2978,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>play itNarrator</t>
+          <t>play catch</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171">
@@ -2993,11 +2993,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>like tomatoesGrandpa</t>
+          <t>play something</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172">
@@ -3008,11 +3008,11 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>eat anything</t>
+          <t>say sorry</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173">
@@ -3023,11 +3023,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>wear life</t>
+          <t>find anyone</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174">
@@ -3038,11 +3038,11 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>do today</t>
+          <t>find something</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175">
@@ -3053,11 +3053,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>say sorry</t>
+          <t>need anything</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>raise money</t>
+          <t>hear something</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>try itPeppa</t>
+          <t>need help</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>find something</t>
+          <t>look fun</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>drop something</t>
+          <t>hear anything</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -3128,11 +3128,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>say thatPeppa</t>
+          <t>watch TV</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -3143,11 +3143,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>play tooNarrator</t>
+          <t>better hurry</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -3188,11 +3188,11 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>build a big sand</t>
+          <t>round the little bush</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>find a golden treasure</t>
+          <t>make a little hole</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>win a giant teddyPeppa</t>
+          <t>have a little sleep</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -3233,11 +3233,11 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>be the sick personPeppa</t>
+          <t>build a big sand</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -3248,11 +3248,11 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>make a little hole</t>
+          <t>find a golden treasure</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -3263,11 +3263,11 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>make a little holePeppa</t>
+          <t>win a giant teddy</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -3278,11 +3278,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>take a long time</t>
+          <t>say the secret word</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -3293,11 +3293,11 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>have a proper guessDaddy</t>
+          <t>see the little fish</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>fly the kite firstNarrator</t>
+          <t>be the sick person</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>get the kite stuck</t>
+          <t>take a long time</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>have a nice walk</t>
+          <t>have a proper guess</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>leave a shiny coinPeppa</t>
+          <t>have a special box</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>be a tooth fairyDaddy</t>
+          <t>get the kite stuck</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>borrow this new car</t>
+          <t>have a nice walk</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>try the red buttonPeppas</t>
+          <t>leave a shiny coin</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Im a big girl</t>
+          <t>borrow this new car</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>play a different gameCousin</t>
+          <t>press this red button</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>be a simple matter</t>
+          <t>try the red button</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203">
@@ -3473,11 +3473,11 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>bright sunny day</t>
+          <t>twinkle little star</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -3488,11 +3488,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>new red shoesNarrator</t>
+          <t>lovely sunny morning</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205">
@@ -3503,11 +3503,11 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ready steady goNarrator</t>
+          <t>rainy sunny day</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>lovely sunny dayNarrator</t>
+          <t>little fairy princess</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>lovely sunny morning</t>
+          <t>sweet little parrot</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>toot toot toot</t>
+          <t>lovely hot day</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>big bad wolf</t>
+          <t>lovely clean teeth</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -3578,11 +3578,11 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>little fairy princessPeppa</t>
+          <t>special pink drink</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
@@ -3593,11 +3593,11 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>enough pumpkin pie</t>
+          <t>pretty French song</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
@@ -3608,11 +3608,11 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>havent forgotten howDaddy</t>
+          <t>big bad wolf</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>nice big muddy</t>
+          <t>enough pumpkin pie</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>brave little one</t>
+          <t>bright sunny day</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>muddy puddlesSplish splash</t>
+          <t>little duck pond</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>lovely shiny carDaddy</t>
+          <t>nice big muddy</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>silly secret wordsPeppa</t>
+          <t>nice clean tooth</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>little fairy princessCandy</t>
+          <t>new blue car</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>queens special chair</t>
+          <t>first clue-a message</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>lovely hot dayNarrator</t>
+          <t>next clue-a key</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>lovely new picture</t>
+          <t>brave little one</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="223">
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="224">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="225">
@@ -3803,11 +3803,11 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>very special</t>
+          <t>very important</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="226">
@@ -3818,11 +3818,11 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>very important</t>
+          <t>too big</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="227">
@@ -3833,11 +3833,11 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>too big</t>
+          <t>too much</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="228">
@@ -3848,11 +3848,11 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>too much</t>
+          <t>not funny</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="229">
@@ -3863,11 +3863,11 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>very hard</t>
+          <t>very special</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230">
@@ -3878,11 +3878,11 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>very proud</t>
+          <t>not fair</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231">
@@ -3893,11 +3893,11 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>so much</t>
+          <t>very nice</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232">
@@ -3908,11 +3908,11 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>very big</t>
+          <t>not easy</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="233">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234">
@@ -3938,11 +3938,11 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>as good</t>
+          <t>very big</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="235">
@@ -3953,11 +3953,11 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>very nice</t>
+          <t>too high</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236">
@@ -3968,11 +3968,11 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>very wellDaddy</t>
+          <t>so much</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237">
@@ -3983,11 +3983,11 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>so many</t>
+          <t>very interesting</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239">
@@ -4013,11 +4013,11 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>very top</t>
+          <t>as good</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240">
@@ -4028,11 +4028,11 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>not easy</t>
+          <t>very hard</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="241">
@@ -4043,11 +4043,11 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>really big</t>
+          <t>very proud</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242">
@@ -4073,11 +4073,11 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>hell be</t>
+          <t>anyone guess</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244">
@@ -4088,11 +4088,11 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>wont be</t>
+          <t>button do</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
@@ -4103,11 +4103,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>shell be</t>
+          <t>plant grow</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -4118,11 +4118,11 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>row row</t>
+          <t>something funny</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -4133,11 +4133,11 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>dont be</t>
+          <t>someone show</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -4148,11 +4148,11 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>holiday houseDaddy</t>
+          <t>please hold</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>youre inPeppa</t>
+          <t>treat be</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>please stop</t>
+          <t>garden get</t>
         </is>
       </c>
       <c r="C250" t="n">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>let go</t>
+          <t>fruit cake</t>
         </is>
       </c>
       <c r="C251" t="n">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>school fetePeppa</t>
+          <t>house be</t>
         </is>
       </c>
       <c r="C252" t="n">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>bouncy castle</t>
+          <t>birthday muddy</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>something funnyDanny</t>
+          <t>oil run</t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>water hogGrandpa</t>
+          <t>fun run</t>
         </is>
       </c>
       <c r="C255" t="n">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>daddyYoull introduce</t>
+          <t>everything look</t>
         </is>
       </c>
       <c r="C256" t="n">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>stuff readyPeppa</t>
+          <t>bit please</t>
         </is>
       </c>
       <c r="C257" t="n">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>day offZo</t>
+          <t>anybody know</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>sand castleRebecca</t>
+          <t>light go</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>future be</t>
+          <t>someone think</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -4343,7 +4343,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>something glitteringPeppa</t>
+          <t>world do</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -4358,11 +4358,11 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>do it</t>
+          <t>See you</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="263">
@@ -4373,11 +4373,11 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>see you</t>
+          <t>do it</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="264">
@@ -4388,11 +4388,11 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>make it</t>
+          <t>Do you</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="265">
@@ -4403,11 +4403,11 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>do you</t>
+          <t>show you</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="266">
@@ -4418,11 +4418,11 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>tell you</t>
+          <t>make it</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="267">
@@ -4433,11 +4433,11 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>show you</t>
+          <t>see you</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="268">
@@ -4448,11 +4448,11 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>make you</t>
+          <t>thank you</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269">
@@ -4463,11 +4463,11 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>help us</t>
+          <t>help you</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270">
@@ -4478,11 +4478,11 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>turn you</t>
+          <t>play it</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271">
@@ -4493,11 +4493,11 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>teach you</t>
+          <t>find them</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272">
@@ -4508,11 +4508,11 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>show us</t>
+          <t>Thank you</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273">
@@ -4523,11 +4523,11 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>play it</t>
+          <t>get you</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274">
@@ -4538,11 +4538,11 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>get it</t>
+          <t>Let me</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275">
@@ -4553,11 +4553,11 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>find you</t>
+          <t>tell you</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276">
@@ -4568,11 +4568,11 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>See you</t>
+          <t>make you</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="277">
@@ -4583,11 +4583,11 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>help me</t>
+          <t>help us</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278">
@@ -4598,11 +4598,11 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>find them</t>
+          <t>get it</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="279">
@@ -4613,11 +4613,11 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>think it</t>
+          <t>tell us</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="280">
@@ -4628,11 +4628,11 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>see it</t>
+          <t>help me</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281">
@@ -4643,11 +4643,11 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>tell us</t>
+          <t>do you</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282">
@@ -4658,11 +4658,11 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>in muddy puddlesPeppa</t>
+          <t>of important work</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283">
@@ -4673,11 +4673,11 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>in muddy puddlesNarrator</t>
+          <t>into dinosaur land</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>in muddy puddlesMummy</t>
+          <t>of golden treasure</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -4703,11 +4703,11 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>for big girlsPeppa</t>
+          <t>that strange noise</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -4718,11 +4718,11 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>of important work</t>
+          <t>into pumpkin pie</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -4733,11 +4733,11 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>of old clothesPeppa</t>
+          <t>of strawberry cake</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -4748,11 +4748,11 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>in muddy puddlesMadame</t>
+          <t>in bed asleep</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -4763,11 +4763,11 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>in muddy puddlesKylie</t>
+          <t>as much cake</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>that strange noise</t>
+          <t>of lovely honey</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>into pumpkin piePeppa</t>
+          <t>at map reading</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>of musical instrumentsPeppa</t>
+          <t>for grown-up artist</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>of different onesPeppa</t>
+          <t>with yellow paint</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -4838,7 +4838,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>in red spotsDr</t>
+          <t>of old junk</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>in muddy puddlesCousin</t>
+          <t>of hot milk</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>in bed asleepPeppa</t>
+          <t>of carpet-flavored yogurt</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -4883,7 +4883,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>with muddy puddlesNarrator</t>
+          <t>like jammy-yogurt-flavored custard</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>from long agoPeppa</t>
+          <t>in map reading</t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>as much cake</t>
+          <t>that rusty boat</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>in muddy puddlesLookNarrator</t>
+          <t>that huge case</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>with dry leavesPeppa</t>
+          <t>of irregular verb</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -4958,11 +4958,11 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>a lot of stuff</t>
+          <t>a cup of tea</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303">
@@ -4973,11 +4973,11 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>a cup of teaNarrator</t>
+          <t>a lot of noise</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="304">
@@ -4988,11 +4988,11 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>a cup of tea</t>
+          <t>a lot of fun</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305">
@@ -5003,11 +5003,11 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>a lot of funNarrator</t>
+          <t>a stroke of luck</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306">
@@ -5018,11 +5018,11 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>a plaster on itSuzy</t>
+          <t>a lot of stuff</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307">
@@ -5033,11 +5033,11 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>a lot of work</t>
+          <t>the teapot with water</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308">
@@ -5048,11 +5048,11 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>this coin in return</t>
+          <t>a lot of money</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -5063,11 +5063,11 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>a lot of funPeppa</t>
+          <t>the song of harmony</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310">
@@ -5078,11 +5078,11 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>a surprise for everyoneMummy</t>
+          <t>every type of fish</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311">
@@ -5093,7 +5093,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>a day for pancakesDaddy</t>
+          <t>a lot of work</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>a lot of funMadame</t>
+          <t>this coin in return</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>a piece of lettuce</t>
+          <t>a surprise for everyone</t>
         </is>
       </c>
       <c r="C313" t="n">
@@ -5138,7 +5138,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>a lot of noise</t>
+          <t>the garden for lunch</t>
         </is>
       </c>
       <c r="C314" t="n">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>a craftsman at workNarrator</t>
+          <t>a piece of lettuce</t>
         </is>
       </c>
       <c r="C315" t="n">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>the teapot with water</t>
+          <t>a fuss about nothing</t>
         </is>
       </c>
       <c r="C316" t="n">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>the teapot with waterGeorge</t>
+          <t>a bit of exercise</t>
         </is>
       </c>
       <c r="C317" t="n">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>the count of threePeppa</t>
+          <t>a craftsman at work</t>
         </is>
       </c>
       <c r="C318" t="n">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>the fruitPeppa Over thereNarrator</t>
+          <t>a lot of cake</t>
         </is>
       </c>
       <c r="C319" t="n">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>a lot of cookiesDaddy</t>
+          <t>The tug of war</t>
         </is>
       </c>
       <c r="C320" t="n">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>a lot of cakeNarrator</t>
+          <t>the tyre with air</t>
         </is>
       </c>
       <c r="C321" t="n">
@@ -5288,11 +5288,11 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>can go straight</t>
+          <t>'ll be back</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="325">
@@ -5303,11 +5303,11 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>should be just</t>
+          <t>can go straight</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="326">
@@ -5318,11 +5318,11 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>can get back</t>
+          <t>'ll come straight</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327">
@@ -5333,11 +5333,11 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>will take as</t>
+          <t>'ll be right</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -5348,11 +5348,11 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>can go out</t>
+          <t>'ll stay here</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329">
@@ -5363,11 +5363,11 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>would be very</t>
+          <t>must be here</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330">
@@ -5378,11 +5378,11 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>will fly awayDaddy</t>
+          <t>'ll go first</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331">
@@ -5393,11 +5393,11 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>would run around</t>
+          <t>'ll be very</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332">
@@ -5408,11 +5408,11 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>will stay awake</t>
+          <t>should be just</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333">
@@ -5423,11 +5423,11 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>must stay very</t>
+          <t>'ll be here</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334">
@@ -5438,11 +5438,11 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>can look as</t>
+          <t>will be fun</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335">
@@ -5453,11 +5453,11 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>will fall asleep</t>
+          <t>would be here</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336">
@@ -5468,11 +5468,11 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>must be really</t>
+          <t>can get back</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337">
@@ -5483,11 +5483,11 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>can play again</t>
+          <t>will take as</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338">
@@ -5498,11 +5498,11 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>can see youve</t>
+          <t>'ll be there</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339">
@@ -5513,11 +5513,11 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>must be almost</t>
+          <t>'ll be straight</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340">
@@ -5528,11 +5528,11 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>will grow very</t>
+          <t>'ll live here</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>must promise not</t>
+          <t>can go out</t>
         </is>
       </c>
       <c r="C341" t="n">
@@ -5573,7 +5573,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>song with a bing</t>
+          <t>fish in the bowl</t>
         </is>
       </c>
       <c r="C343" t="n">
@@ -5588,11 +5588,11 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>fish in the bowl</t>
+          <t>piggy in the middle</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>stick in the mixture</t>
+          <t>day on the river</t>
         </is>
       </c>
       <c r="C345" t="n">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>end of the world</t>
+          <t>thing on the list</t>
         </is>
       </c>
       <c r="C346" t="n">
@@ -5633,11 +5633,11 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>look at the mess</t>
+          <t>stick in the mixture</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348">
@@ -5648,11 +5648,11 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>day of the school</t>
+          <t>puddle in the world</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="349">
@@ -5663,11 +5663,11 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>view from the top</t>
+          <t>end of the world</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="350">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>day on the riverGrandpa</t>
+          <t>look at the mess</t>
         </is>
       </c>
       <c r="C350" t="n">
@@ -5693,7 +5693,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>thing on the list</t>
+          <t>work on the computer</t>
         </is>
       </c>
       <c r="C351" t="n">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>start of the nature</t>
+          <t>ball in the garden</t>
         </is>
       </c>
       <c r="C352" t="n">
@@ -5723,7 +5723,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>bottom of the riverNarrator</t>
+          <t>caught in a tree</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -5738,7 +5738,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>turn in the sandpitPedro</t>
+          <t>day of the school</t>
         </is>
       </c>
       <c r="C354" t="n">
@@ -5753,11 +5753,11 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>job for a detectivePeppa</t>
+          <t>view from the top</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356">
@@ -5768,11 +5768,11 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>isnt under the bedNarrator</t>
+          <t>cake in the trolley</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357">
@@ -5783,11 +5783,11 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>isnt behind the curtainNarrator</t>
+          <t>o'clock in the morning</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358">
@@ -5798,11 +5798,11 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>work on the computerPeppa</t>
+          <t>song with a bing</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359">
@@ -5813,11 +5813,11 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>ball in the gardenPeppa</t>
+          <t>start of the nature</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360">
@@ -5828,11 +5828,11 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>piggy in the middlePeppa</t>
+          <t>ship in a bottle</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361">
@@ -5843,11 +5843,11 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>top of the television</t>
+          <t>end of the rainbow</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362">
@@ -5858,11 +5858,11 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>want to be</t>
+          <t>want to play</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="363">
@@ -5873,11 +5873,11 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>want to play</t>
+          <t>want to be</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="364">
@@ -5888,11 +5888,11 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>like to play</t>
+          <t>have to wait</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="365">
@@ -5903,11 +5903,11 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>have to eat</t>
+          <t>go to work</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="366">
@@ -5918,11 +5918,11 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>like to know</t>
+          <t>like to play</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="367">
@@ -5937,7 +5937,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368">
@@ -5948,11 +5948,11 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>want to see</t>
+          <t>want to get</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="369">
@@ -5963,11 +5963,11 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>like to go</t>
+          <t>want to go</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370">
@@ -5978,11 +5978,11 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>want to go</t>
+          <t>have to do</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="371">
@@ -5993,11 +5993,11 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>like to show</t>
+          <t>like to be</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="372">
@@ -6008,11 +6008,11 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>like to do</t>
+          <t>go to sleep</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373">
@@ -6023,11 +6023,11 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>go to bedPeppa</t>
+          <t>have to eat</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374">
@@ -6038,11 +6038,11 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>love to come</t>
+          <t>like to do</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="375">
@@ -6053,11 +6053,11 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>remember to bring</t>
+          <t>have to go</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="376">
@@ -6068,11 +6068,11 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>go to bed</t>
+          <t>want to do</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377">
@@ -6083,11 +6083,11 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>have to waitMiss</t>
+          <t>get to work</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>like to see</t>
+          <t>have to be</t>
         </is>
       </c>
       <c r="C378" t="n">
@@ -6113,7 +6113,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>want to do</t>
+          <t>seem to have</t>
         </is>
       </c>
       <c r="C379" t="n">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>need to go</t>
+          <t>like to know</t>
         </is>
       </c>
       <c r="C380" t="n">
@@ -6143,7 +6143,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>have to do</t>
+          <t>want to miss</t>
         </is>
       </c>
       <c r="C381" t="n">
@@ -6158,11 +6158,11 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>going home</t>
+          <t>bing boo</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="383">
@@ -6173,11 +6173,11 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>sitting roomPeppa</t>
+          <t>doing nothing</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="384">
@@ -6188,11 +6188,11 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>doing nothingNarrator</t>
+          <t>having fun</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="385">
@@ -6203,11 +6203,11 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>bing boo</t>
+          <t>watching television</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="386">
@@ -6218,11 +6218,11 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>playing football</t>
+          <t>going home</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="387">
@@ -6233,11 +6233,11 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>playing hide</t>
+          <t>saying hello</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="388">
@@ -6248,11 +6248,11 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>feeding bread</t>
+          <t>paddling pool</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389">
@@ -6263,11 +6263,11 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>swimming costumeMummy</t>
+          <t>swimming pool</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390">
@@ -6278,11 +6278,11 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>making sand</t>
+          <t>watching TV</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="391">
@@ -6293,11 +6293,11 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>having fun</t>
+          <t>talking snowman</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="392">
@@ -6308,11 +6308,11 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>crying aboutPeppa</t>
+          <t>flying vet</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="393">
@@ -6323,11 +6323,11 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>watching TV</t>
+          <t>leaving party</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="394">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>eating fruit</t>
+          <t>playing hide</t>
         </is>
       </c>
       <c r="C394" t="n">
@@ -6353,7 +6353,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>digging holesNarrator</t>
+          <t>helping hand</t>
         </is>
       </c>
       <c r="C395" t="n">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>leaving partyPeppa</t>
+          <t>feeding bread</t>
         </is>
       </c>
       <c r="C396" t="n">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>working person</t>
+          <t>making lunch</t>
         </is>
       </c>
       <c r="C397" t="n">
@@ -6398,7 +6398,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>coming home</t>
+          <t>making sand</t>
         </is>
       </c>
       <c r="C398" t="n">
@@ -6413,11 +6413,11 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>raining today</t>
+          <t>taking part</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400">
@@ -6428,11 +6428,11 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>playing draughtsPeppa</t>
+          <t>playing tennis</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401">
@@ -6443,11 +6443,11 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>finding thingsPeppa</t>
+          <t>going today</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402">
@@ -6458,11 +6458,11 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>arrived at</t>
+          <t>made of</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="403">
@@ -6473,11 +6473,11 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>stuck in</t>
+          <t>arrived at</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="404">
@@ -6488,11 +6488,11 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>made of</t>
+          <t>stuck in</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="405">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>been in</t>
+          <t>sleepy at</t>
         </is>
       </c>
       <c r="C407" t="n">
@@ -6548,11 +6548,11 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>thought of</t>
+          <t>been in</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="409">
@@ -6563,7 +6563,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>stuck on</t>
+          <t>thought of</t>
         </is>
       </c>
       <c r="C409" t="n">
@@ -6578,7 +6578,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>done in</t>
+          <t>stuck on</t>
         </is>
       </c>
       <c r="C410" t="n">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>made by</t>
+          <t>done in</t>
         </is>
       </c>
       <c r="C411" t="n">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>home from</t>
+          <t>got in</t>
         </is>
       </c>
       <c r="C412" t="n">
@@ -6623,11 +6623,11 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>arrived for</t>
+          <t>made by</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="414">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>gone for</t>
+          <t>Come on</t>
         </is>
       </c>
       <c r="C414" t="n">
@@ -6653,7 +6653,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>run out</t>
+          <t>arrived for</t>
         </is>
       </c>
       <c r="C415" t="n">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>rescued by</t>
+          <t>made for</t>
         </is>
       </c>
       <c r="C416" t="n">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>gone over</t>
+          <t>gone for</t>
         </is>
       </c>
       <c r="C417" t="n">
@@ -6698,7 +6698,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>got in</t>
+          <t>run out</t>
         </is>
       </c>
       <c r="C418" t="n">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>landed on</t>
+          <t>paid for</t>
         </is>
       </c>
       <c r="C419" t="n">
@@ -6728,7 +6728,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>left on</t>
+          <t>rescued by</t>
         </is>
       </c>
       <c r="C420" t="n">
@@ -6743,7 +6743,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>landed in</t>
+          <t>gone over</t>
         </is>
       </c>
       <c r="C421" t="n">
@@ -6758,11 +6758,11 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Two adults</t>
+          <t>two children</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="423">
@@ -6773,11 +6773,11 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>two children</t>
+          <t>hundred years</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="424">
@@ -6788,11 +6788,11 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>two buttons</t>
+          <t>Two adults</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425">
@@ -6803,7 +6803,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>two pieces</t>
+          <t>three times</t>
         </is>
       </c>
       <c r="C425" t="n">
@@ -6818,11 +6818,11 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>five sixseven</t>
+          <t>thousand pounds</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427">
@@ -6833,11 +6833,11 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>three times</t>
+          <t>Five pounds</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428">
@@ -6848,11 +6848,11 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>two beakers</t>
+          <t>Five times</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429">
@@ -6863,11 +6863,11 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>three candles</t>
+          <t>two cups</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430">
@@ -6878,11 +6878,11 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Two tickets</t>
+          <t>two buttons</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431">
@@ -6893,11 +6893,11 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>three hooplaPeppa</t>
+          <t>Three times</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432">
@@ -6908,11 +6908,11 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>three hooplaDaddy</t>
+          <t>two pieces</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433">
@@ -6923,11 +6923,11 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>two puppets</t>
+          <t>Ten pounds</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434">
@@ -6938,7 +6938,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>four things</t>
+          <t>three years</t>
         </is>
       </c>
       <c r="C434" t="n">
@@ -6953,7 +6953,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>three fourMummy</t>
+          <t>two beakers</t>
         </is>
       </c>
       <c r="C435" t="n">
@@ -6968,7 +6968,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>three balls</t>
+          <t>three candles</t>
         </is>
       </c>
       <c r="C436" t="n">
@@ -6983,7 +6983,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>three coloursDaddy</t>
+          <t>Two tickets</t>
         </is>
       </c>
       <c r="C437" t="n">
@@ -6998,7 +6998,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>two sticks</t>
+          <t>two puppets</t>
         </is>
       </c>
       <c r="C438" t="n">
@@ -7013,7 +7013,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>million miles</t>
+          <t>four things</t>
         </is>
       </c>
       <c r="C439" t="n">
@@ -7028,7 +7028,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>two snails</t>
+          <t>three balls</t>
         </is>
       </c>
       <c r="C440" t="n">
@@ -7043,7 +7043,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>two seats</t>
+          <t>three colours</t>
         </is>
       </c>
       <c r="C441" t="n">
@@ -7058,11 +7058,11 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>big and strong</t>
+          <t>high and high</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="443">
@@ -7073,11 +7073,11 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>high and high</t>
+          <t>big and strong</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="444">
@@ -7088,11 +7088,11 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>big But later</t>
+          <t>nice and clean</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445">
@@ -7103,11 +7103,11 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>old and dustyMummy</t>
+          <t>old and rusty</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446">
@@ -7118,11 +7118,11 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>cold and wet</t>
+          <t>bright and early</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447">
@@ -7133,11 +7133,11 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>sleepy and doesnt</t>
+          <t>fit and healthy</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>red and hot</t>
+          <t>soft and fuzzy</t>
         </is>
       </c>
       <c r="C448" t="n">
@@ -7163,7 +7163,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>eager and ready</t>
+          <t>old and dusty</t>
         </is>
       </c>
       <c r="C449" t="n">
@@ -7178,7 +7178,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>nice and warmMummy</t>
+          <t>red and hot</t>
         </is>
       </c>
       <c r="C450" t="n">
@@ -7193,7 +7193,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>red and yellowMummy</t>
+          <t>eager and ready</t>
         </is>
       </c>
       <c r="C451" t="n">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>old and rustyMiss</t>
+          <t>quiet and peaceful</t>
         </is>
       </c>
       <c r="C452" t="n">
@@ -7223,7 +7223,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>old and valuableMummy</t>
+          <t>nice and warm</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -7238,7 +7238,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>fit and strong</t>
+          <t>old and valuable</t>
         </is>
       </c>
       <c r="C454" t="n">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>wide and say</t>
+          <t>fit and strong</t>
         </is>
       </c>
       <c r="C455" t="n">
@@ -7268,7 +7268,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>hot and sunnyGeorge</t>
+          <t>hot and sunny</t>
         </is>
       </c>
       <c r="C456" t="n">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>old and rustyDaddy</t>
+          <t>blue and yellow</t>
         </is>
       </c>
       <c r="C457" t="n">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>clean and healthyPeppa</t>
+          <t>clean and healthy</t>
         </is>
       </c>
       <c r="C459" t="n">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>sweet and littleRebecca</t>
+          <t>sweet and little</t>
         </is>
       </c>
       <c r="C461" t="n">
@@ -7358,11 +7358,11 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>see you too</t>
+          <t>See you later</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="463">
@@ -7373,11 +7373,11 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>blow it very</t>
+          <t>do it again</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="464">
@@ -7388,11 +7388,11 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>play it quite</t>
+          <t>find them anywhere</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465">
@@ -7403,11 +7403,11 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>find them thenPeppa</t>
+          <t>Maybe it just</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466">
@@ -7418,11 +7418,11 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>find them Maybe</t>
+          <t>Do you still</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467">
@@ -7433,11 +7433,11 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>give you just</t>
+          <t>Take it away</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468">
@@ -7448,11 +7448,11 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>find it very</t>
+          <t>See you again</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469">
@@ -7463,11 +7463,11 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>tell you just</t>
+          <t>lose it again</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470">
@@ -7478,11 +7478,11 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>do it properly</t>
+          <t>Do you not</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471">
@@ -7493,7 +7493,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>see them Here</t>
+          <t>see you too</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -7508,7 +7508,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>use it first</t>
+          <t>play it later</t>
         </is>
       </c>
       <c r="C472" t="n">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>chase you away</t>
+          <t>get it right</t>
         </is>
       </c>
       <c r="C473" t="n">
@@ -7538,7 +7538,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>bed she always</t>
+          <t>blow it very</t>
         </is>
       </c>
       <c r="C474" t="n">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>bed he always</t>
+          <t>play it quite</t>
         </is>
       </c>
       <c r="C475" t="n">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>take it apart</t>
+          <t>give you just</t>
         </is>
       </c>
       <c r="C476" t="n">
@@ -7583,7 +7583,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>take it back</t>
+          <t>find it very</t>
         </is>
       </c>
       <c r="C477" t="n">
@@ -7598,7 +7598,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>bring them back</t>
+          <t>tell you just</t>
         </is>
       </c>
       <c r="C478" t="n">
@@ -7613,7 +7613,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>do it now</t>
+          <t>see you later</t>
         </is>
       </c>
       <c r="C479" t="n">
@@ -7628,7 +7628,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>take him homePeppa</t>
+          <t>do it properly</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>lose it againPeppa</t>
+          <t>use it first</t>
         </is>
       </c>
       <c r="C481" t="n">
@@ -7662,7 +7662,7 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="483">
@@ -7673,11 +7673,11 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>bit too little</t>
+          <t>bingly bungly boo</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="484">
@@ -7688,11 +7688,11 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>not very goodDaddy</t>
+          <t>bit too little</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="485">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>bingly bungly boo</t>
+          <t>not very sure</t>
         </is>
       </c>
       <c r="C486" t="n">
@@ -7733,11 +7733,11 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>very very hotSuzy</t>
+          <t>just as good</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488">
@@ -7748,11 +7748,11 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>not there eitherPeppa</t>
+          <t>n't as good</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489">
@@ -7763,11 +7763,11 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>not as little</t>
+          <t>bingly bongly boo</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490">
@@ -7778,11 +7778,11 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>really very good</t>
+          <t>bingly bongly bang</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>much too heavy</t>
+          <t>very very hot</t>
         </is>
       </c>
       <c r="C491" t="n">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>just as much</t>
+          <t>n't very good</t>
         </is>
       </c>
       <c r="C492" t="n">
@@ -7823,7 +7823,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>nearly enough candlesPeppa</t>
+          <t>bit too much</t>
         </is>
       </c>
       <c r="C493" t="n">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>not very wellDr</t>
+          <t>not as little</t>
         </is>
       </c>
       <c r="C494" t="n">
@@ -7853,7 +7853,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>so far awayDaddy</t>
+          <t>really very good</t>
         </is>
       </c>
       <c r="C495" t="n">
@@ -7868,7 +7868,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>not very hungry</t>
+          <t>much too heavy</t>
         </is>
       </c>
       <c r="C496" t="n">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>not too bad</t>
+          <t>just as much</t>
         </is>
       </c>
       <c r="C497" t="n">
@@ -7898,7 +7898,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>very silly secret</t>
+          <t>not very hungry</t>
         </is>
       </c>
       <c r="C498" t="n">
@@ -7913,7 +7913,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>lolly so much</t>
+          <t>not too bad</t>
         </is>
       </c>
       <c r="C499" t="n">
@@ -7928,7 +7928,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>very very small</t>
+          <t>very silly secret</t>
         </is>
       </c>
       <c r="C500" t="n">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Not so close</t>
+          <t>lolly so much</t>
         </is>
       </c>
       <c r="C501" t="n">
@@ -7958,11 +7958,11 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>The next event is</t>
+          <t>The magnifying glass makes</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="503">
@@ -7973,11 +7973,11 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>The big train is</t>
+          <t>The rubber duck is</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="504">
@@ -7988,11 +7988,11 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>The important thing is</t>
+          <t>The next event is</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505">
@@ -8003,11 +8003,11 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>The new car has</t>
+          <t>The big train is</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506">
@@ -8018,7 +8018,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>The first clue is</t>
+          <t>The important thing is</t>
         </is>
       </c>
       <c r="C506" t="n">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>This first pancake is</t>
+          <t>This tooth fairy is</t>
         </is>
       </c>
       <c r="C507" t="n">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>The next pancake is</t>
+          <t>The new car has</t>
         </is>
       </c>
       <c r="C508" t="n">
@@ -8063,7 +8063,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>a good pancake is</t>
+          <t>The first clue is</t>
         </is>
       </c>
       <c r="C509" t="n">
@@ -8078,7 +8078,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>The main thing is</t>
+          <t>This first pancake is</t>
         </is>
       </c>
       <c r="C510" t="n">
@@ -8093,7 +8093,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>the whole day is</t>
+          <t>The next pancake is</t>
         </is>
       </c>
       <c r="C511" t="n">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>The bubble mixture is</t>
+          <t>a good pancake is</t>
         </is>
       </c>
       <c r="C512" t="n">
@@ -8123,7 +8123,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>The bubble mixture has</t>
+          <t>The main thing is</t>
         </is>
       </c>
       <c r="C513" t="n">
@@ -8138,7 +8138,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>The little fish says</t>
+          <t>the whole day is</t>
         </is>
       </c>
       <c r="C514" t="n">
@@ -8153,7 +8153,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>The red one is</t>
+          <t>The bubble mixture is</t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>the green one is</t>
+          <t>The bubble mixture has</t>
         </is>
       </c>
       <c r="C516" t="n">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>The first event is</t>
+          <t>A little bird is</t>
         </is>
       </c>
       <c r="C517" t="n">
@@ -8198,7 +8198,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>The next race is</t>
+          <t>The little fish says</t>
         </is>
       </c>
       <c r="C518" t="n">
@@ -8213,7 +8213,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>The warm milk makes</t>
+          <t>The red one is</t>
         </is>
       </c>
       <c r="C519" t="n">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>The top prize is</t>
+          <t>the green one is</t>
         </is>
       </c>
       <c r="C520" t="n">
@@ -8243,7 +8243,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>The red ticket wins</t>
+          <t>The first event is</t>
         </is>
       </c>
       <c r="C521" t="n">
@@ -8273,11 +8273,11 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>It will take as</t>
+          <t>I 'll come straight</t>
         </is>
       </c>
       <c r="C523" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524">
@@ -8288,11 +8288,11 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>you must be very</t>
+          <t>I 'll be back</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="525">
@@ -8303,11 +8303,11 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>you can go out</t>
+          <t>I 'll be right</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526">
@@ -8318,11 +8318,11 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>it will fly awayDaddy</t>
+          <t>I 'll stay here</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527">
@@ -8333,11 +8333,11 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>you would run around</t>
+          <t>I 'll go first</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528">
@@ -8348,11 +8348,11 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>I will stay awake</t>
+          <t>It will take as</t>
         </is>
       </c>
       <c r="C528" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529">
@@ -8363,11 +8363,11 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>I can look as</t>
+          <t>I 'll be straight</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530">
@@ -8378,11 +8378,11 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>He must be very</t>
+          <t>We 'll live here</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531">
@@ -8393,7 +8393,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>You can play again</t>
+          <t>you must be very</t>
         </is>
       </c>
       <c r="C531" t="n">
@@ -8408,7 +8408,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>I can see youve</t>
+          <t>you can go out</t>
         </is>
       </c>
       <c r="C532" t="n">
@@ -8423,7 +8423,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>It must be almost</t>
+          <t>you will get hiccups</t>
         </is>
       </c>
       <c r="C533" t="n">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>You must promise not</t>
+          <t>it will fly away</t>
         </is>
       </c>
       <c r="C534" t="n">
@@ -8453,7 +8453,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>You can come back</t>
+          <t>you would run around</t>
         </is>
       </c>
       <c r="C535" t="n">
@@ -8468,7 +8468,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>it will be much</t>
+          <t>I will stay awake</t>
         </is>
       </c>
       <c r="C536" t="n">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>I can run very</t>
+          <t>I 'll call back</t>
         </is>
       </c>
       <c r="C537" t="n">
@@ -8498,7 +8498,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>you must run very</t>
+          <t>I can look as</t>
         </is>
       </c>
       <c r="C538" t="n">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>we must fly back</t>
+          <t>He must be very</t>
         </is>
       </c>
       <c r="C539" t="n">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>she can go anywhere</t>
+          <t>I 'll help as</t>
         </is>
       </c>
       <c r="C540" t="n">
@@ -8543,7 +8543,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>we could jump up</t>
+          <t>You can play again</t>
         </is>
       </c>
       <c r="C541" t="n">
@@ -8588,7 +8588,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>tummy is pure</t>
+          <t>Lunch is ready</t>
         </is>
       </c>
       <c r="C544" t="n">
@@ -8603,7 +8603,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>train goes toot</t>
+          <t>fish goes free</t>
         </is>
       </c>
       <c r="C545" t="n">
@@ -8618,11 +8618,11 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>everything looks fine</t>
+          <t>tummy is pure</t>
         </is>
       </c>
       <c r="C546" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547">
@@ -8633,11 +8633,11 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>box is full</t>
+          <t>train goes toot</t>
         </is>
       </c>
       <c r="C547" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>box is emptyPeppa</t>
+          <t>box is full</t>
         </is>
       </c>
       <c r="C548" t="n">
@@ -8663,7 +8663,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>cake is readyPeppa</t>
+          <t>box is empty</t>
         </is>
       </c>
       <c r="C549" t="n">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>car is fixedPeppas</t>
+          <t>cake is ready</t>
         </is>
       </c>
       <c r="C550" t="n">
@@ -8693,7 +8693,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>top is fantasticPeppa</t>
+          <t>handwriting is excellent</t>
         </is>
       </c>
       <c r="C551" t="n">
@@ -8708,7 +8708,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Everyone loves pancakesDaddy</t>
+          <t>Everyone loves chocolate</t>
         </is>
       </c>
       <c r="C552" t="n">
@@ -8723,7 +8723,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>babysitting is easyPeppa</t>
+          <t>top is fantastic</t>
         </is>
       </c>
       <c r="C553" t="n">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>thunderstorm is overPeppas</t>
+          <t>babysitting is easy</t>
         </is>
       </c>
       <c r="C554" t="n">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>winner is meMummy</t>
+          <t>Everyone is wet</t>
         </is>
       </c>
       <c r="C555" t="n">
@@ -8768,7 +8768,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>room is thisPeppa</t>
+          <t>Everyone loves fancy</t>
         </is>
       </c>
       <c r="C556" t="n">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>spaghetti is deliciousUncle</t>
+          <t>spaghetti is delicious</t>
         </is>
       </c>
       <c r="C557" t="n">
@@ -8798,7 +8798,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>mess is mineDaddy</t>
+          <t>mess is mine</t>
         </is>
       </c>
       <c r="C558" t="n">
@@ -8828,7 +8828,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>wall is mendedPeppa</t>
+          <t>list is fruit</t>
         </is>
       </c>
       <c r="C560" t="n">
@@ -8843,7 +8843,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>list is onionsPeppa</t>
+          <t>grass is easy</t>
         </is>
       </c>
       <c r="C561" t="n">
@@ -8858,11 +8858,11 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>on their way</t>
+          <t>on my way</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="563">
@@ -8873,11 +8873,11 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>in his bed</t>
+          <t>on her computer</t>
         </is>
       </c>
       <c r="C563" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="564">
@@ -8888,11 +8888,11 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>on their ownPeppa</t>
+          <t>on your head</t>
         </is>
       </c>
       <c r="C564" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="565">
@@ -8903,11 +8903,11 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>in my garden</t>
+          <t>in my tummy</t>
         </is>
       </c>
       <c r="C565" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="566">
@@ -8918,11 +8918,11 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>on your headDaddy</t>
+          <t>on their way</t>
         </is>
       </c>
       <c r="C566" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="567">
@@ -8933,11 +8933,11 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>on her computerMummy</t>
+          <t>in my garden</t>
         </is>
       </c>
       <c r="C567" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="568">
@@ -8948,11 +8948,11 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>like your face</t>
+          <t>in their bedroom</t>
         </is>
       </c>
       <c r="C568" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="569">
@@ -8963,11 +8963,11 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>in our house</t>
+          <t>in my bed</t>
         </is>
       </c>
       <c r="C569" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="570">
@@ -8978,11 +8978,11 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>in your toy</t>
+          <t>in their car</t>
         </is>
       </c>
       <c r="C570" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="571">
@@ -8993,11 +8993,11 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>at their playgroupMadame</t>
+          <t>in our garden</t>
         </is>
       </c>
       <c r="C571" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="572">
@@ -9008,11 +9008,11 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>on his boatGrandpa</t>
+          <t>on our way</t>
         </is>
       </c>
       <c r="C572" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="573">
@@ -9023,11 +9023,11 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>in my bed</t>
+          <t>in his van</t>
         </is>
       </c>
       <c r="C573" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="574">
@@ -9038,7 +9038,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>on their activity</t>
+          <t>in his bed</t>
         </is>
       </c>
       <c r="C574" t="n">
@@ -9053,7 +9053,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>on my plaster</t>
+          <t>in your bedroom</t>
         </is>
       </c>
       <c r="C575" t="n">
@@ -9068,7 +9068,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>on my way</t>
+          <t>of your head</t>
         </is>
       </c>
       <c r="C576" t="n">
@@ -9083,7 +9083,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>in your vanMr</t>
+          <t>for our picnic</t>
         </is>
       </c>
       <c r="C577" t="n">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>on our teamPeppa</t>
+          <t>in his garden</t>
         </is>
       </c>
       <c r="C578" t="n">
@@ -9113,7 +9113,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>in her rescue</t>
+          <t>like your face</t>
         </is>
       </c>
       <c r="C579" t="n">
@@ -9128,7 +9128,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>in my perfume</t>
+          <t>for my birthday</t>
         </is>
       </c>
       <c r="C580" t="n">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>at their holiday</t>
+          <t>under your pillow</t>
         </is>
       </c>
       <c r="C581" t="n">
